--- a/biology/Zoologie/Hyla_heinzsteinitzi/Hyla_heinzsteinitzi.xlsx
+++ b/biology/Zoologie/Hyla_heinzsteinitzi/Hyla_heinzsteinitzi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Hyla heinzsteinitzi est une espèce d'amphibiens de la famille des Hylidae[1].
+Hyla heinzsteinitzi est une espèce d'amphibiens de la famille des Hylidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente en Israël et en Cisjordanie : près de Jérusalem dans seulement trois localités des Monts de Judée entre 730 et 895 m d'altitude : le réservoir de Mamilla, Wadi près de Moẕa et à Ein Fara (soit une surface de 13 km sur 6 km). Toutefois, les spécimens de Wadi et d'Ein Fara pourraient eux aussi provenir du réservoir de Mamilla, l'espèce ne serait alors connue que d'un site unique[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente en Israël et en Cisjordanie : près de Jérusalem dans seulement trois localités des Monts de Judée entre 730 et 895 m d'altitude : le réservoir de Mamilla, Wadi près de Moẕa et à Ein Fara (soit une surface de 13 km sur 6 km). Toutefois, les spécimens de Wadi et d'Ein Fara pourraient eux aussi provenir du réservoir de Mamilla, l'espèce ne serait alors connue que d'un site unique,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Heinz Steinitz[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Heinz Steinitz.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Grach, Plesser &amp; Werner, 2007 : A new, sibling, tree frog from Jerusalem (Amphibia: Anura: Hylidae). Journal of Natural History, vol. 41, no 9-12, p. 709-728.</t>
         </is>
